--- a/results/MVSE/aminer/MVSE_aminer<l01><WL>83.22.xlsx
+++ b/results/MVSE/aminer/MVSE_aminer<l01><WL>83.22.xlsx
@@ -938,7 +938,7 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L8" t="n">
         <v>0.55</v>
@@ -954,7 +954,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-23_38_33', 'cl_mode': 'WL_0.33_0.33_0.33', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WL', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 0, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_22-00_25_25', 'cl_mode': 'WL_0.33_0.33_0.33', 'clip_norm': 1.0, 'dataset': 'aminer', 'exp_name': 'WL', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': [['pa', 'ap'], ['cite', 'cited_by']], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
     </row>
